--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B91C179-53C6-5848-9CC3-A89200A921BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83245789-FCFA-F946-9EB4-87C4E988EE04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
-    <sheet name="structure" sheetId="2" r:id="rId2"/>
+    <sheet name="axis" sheetId="4" r:id="rId2"/>
+    <sheet name="AB" sheetId="3" r:id="rId3"/>
+    <sheet name="structure" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -314,6 +316,27 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>lateral side' some talus</t>
+  </si>
+  <si>
+    <t>astragalus breadth</t>
   </si>
 </sst>
 </file>
@@ -378,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -388,6 +411,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -997,6 +1021,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CB5986-51FC-DE43-B05D-244B8FCFA800}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
+        <v>line along proximal-distal of lateral side' some talus</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E450E693-3DF7-A64A-99EB-94A43B6B5A08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
   <dimension ref="A1:N8"/>
   <sheetViews>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83245789-FCFA-F946-9EB4-87C4E988EE04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB161D-C657-8947-9839-E8BF51FC4A1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -84,9 +84,6 @@
     <t>astragalus breadth of the trochlea (at the apex of each condyle), astragalus M3</t>
   </si>
   <si>
-    <t>astragalus maximal diameter of the medial condyle, astragalus M2, Astragalus LmT</t>
-  </si>
-  <si>
     <t>articular facet of distal astragalus</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>astragalus medial trochlea tali length; astragalus diameter of medial condyle</t>
   </si>
   <si>
-    <t>talus medial trochlea tali length</t>
-  </si>
-  <si>
     <t>astragalus trochlea breadth</t>
   </si>
   <si>
@@ -337,6 +331,15 @@
   </si>
   <si>
     <t>astragalus breadth</t>
+  </si>
+  <si>
+    <t>talus medial lengtgh</t>
+  </si>
+  <si>
+    <t>trochlea tali length</t>
+  </si>
+  <si>
+    <t>astragalus maximal diameter of the medial condyle, astragalus M2, Astragalus LmT; talus medial trochlea tali length</t>
   </si>
 </sst>
 </file>
@@ -728,13 +731,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="27.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -765,73 +772,73 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -839,36 +846,36 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3">
         <v>7</v>
@@ -876,33 +883,33 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -910,19 +917,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3">
         <v>5</v>
@@ -930,19 +937,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -950,16 +957,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
@@ -967,24 +974,30 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
@@ -1024,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CB5986-51FC-DE43-B05D-244B8FCFA800}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1032,27 +1045,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" t="str">
         <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
@@ -1061,7 +1074,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1096,43 +1109,43 @@
         <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1140,15 +1153,15 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1157,32 +1170,32 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1191,32 +1204,32 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1225,15 +1238,15 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1242,15 +1255,15 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2"/>
     </row>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB161D-C657-8947-9839-E8BF51FC4A1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF542E6A-51E8-5C45-88E7-573D69468D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Scott 1990</t>
   </si>
   <si>
-    <t>medial trochlea of astragalus; has_related_synonym: medial condyle of talus</t>
-  </si>
-  <si>
-    <t>lateral trochlea of astragalus; has_related_synonym: lateral condyle of talus</t>
-  </si>
-  <si>
     <t>distal astragalus width ML, Astragalus Bd, greatest breadth of the distal end</t>
   </si>
   <si>
@@ -75,12 +69,6 @@
     <t>Astragalus Dl, depth of the lateral side, Astragalus Tl</t>
   </si>
   <si>
-    <t>ridge of lateral troclea of astragalus, ridge of lateral trochlea of talus, ridge of lateral condyle of astragalus</t>
-  </si>
-  <si>
-    <t>ridge of medial troclea of astragalus, ridge of medial trochlea of talus, ridge of medial condyle of astragalus</t>
-  </si>
-  <si>
     <t>astragalus breadth of the trochlea (at the apex of each condyle), astragalus M3</t>
   </si>
   <si>
@@ -93,27 +81,15 @@
     <t>Distal articular depth, M6</t>
   </si>
   <si>
-    <t>tuberculum mediale tali</t>
-  </si>
-  <si>
     <t>astragalus M4, astragalus maximal breadth, Astragalus GB, Astragalus greated breadth</t>
   </si>
   <si>
     <t>Astragalus AST3, intermediate length or minimum distance of the double trochlea in the proximal-distal direction (Wolverton 2007)</t>
   </si>
   <si>
-    <t>Astragalus GH (greatest height or length)</t>
-  </si>
-  <si>
     <t>in FOVT; no equivalency yet</t>
   </si>
   <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>astragalus greatest length</t>
-  </si>
-  <si>
     <t>talus length</t>
   </si>
   <si>
@@ -123,18 +99,12 @@
     <t>astragalus length lateral</t>
   </si>
   <si>
-    <t>talus length lateral</t>
-  </si>
-  <si>
     <t>GLm</t>
   </si>
   <si>
     <t>astragalus length medial</t>
   </si>
   <si>
-    <t>talus length medial</t>
-  </si>
-  <si>
     <t>GB</t>
   </si>
   <si>
@@ -174,12 +144,6 @@
     <t>GH</t>
   </si>
   <si>
-    <t>astragalus height</t>
-  </si>
-  <si>
-    <t>talus height</t>
-  </si>
-  <si>
     <t>BFd</t>
   </si>
   <si>
@@ -213,12 +177,6 @@
     <t>medial trochlea of talus</t>
   </si>
   <si>
-    <t>The medial trochlea of a talus.</t>
-  </si>
-  <si>
-    <t>part of' some talus</t>
-  </si>
-  <si>
     <t>lateral trochlea of talus</t>
   </si>
   <si>
@@ -234,33 +192,15 @@
     <t>articular surface', 'part of' some 'astraglus head'</t>
   </si>
   <si>
-    <t>medial tubercle of talus</t>
-  </si>
-  <si>
-    <t>Attachment site for ligamentum collatorale medium curtum</t>
-  </si>
-  <si>
-    <t>tubercle'; 'part of' some talus</t>
-  </si>
-  <si>
     <t>trochlear groove of talus</t>
   </si>
   <si>
-    <t>Furrow between the lateral and medial trochlea of a talus.</t>
-  </si>
-  <si>
-    <t>part of' some 'talus'</t>
-  </si>
-  <si>
     <t>ridge of lateral trochlea of talus</t>
   </si>
   <si>
     <t>The ridge of the lateral condyle of a talus.</t>
   </si>
   <si>
-    <t>part of' some 'lateral trochlea of talus'</t>
-  </si>
-  <si>
     <t>ridge of medial trochlea of talus</t>
   </si>
   <si>
@@ -327,26 +267,110 @@
     <t>proximal-distal</t>
   </si>
   <si>
-    <t>lateral side' some talus</t>
-  </si>
-  <si>
-    <t>astragalus breadth</t>
-  </si>
-  <si>
-    <t>talus medial lengtgh</t>
-  </si>
-  <si>
     <t>trochlea tali length</t>
   </si>
   <si>
     <t>astragalus maximal diameter of the medial condyle, astragalus M2, Astragalus LmT; talus medial trochlea tali length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medial-lateral axis </t>
+  </si>
+  <si>
+    <t>lateral side' and ('part of' some talus)</t>
+  </si>
+  <si>
+    <t>talus</t>
+  </si>
+  <si>
+    <t>medial side' and ('part of' some talus)</t>
+  </si>
+  <si>
+    <t>anterior-posterior</t>
+  </si>
+  <si>
+    <t>distalmostpart of' some talus</t>
+  </si>
+  <si>
+    <t>talus medial length</t>
+  </si>
+  <si>
+    <t>talus lateral length</t>
+  </si>
+  <si>
+    <t>astragalus greatest length; talus height; astragalus height</t>
+  </si>
+  <si>
+    <t>Furrow between the lateral and medial condyle of a talus.</t>
+  </si>
+  <si>
+    <t>mesoderm-derived structure'; 'organ part'; 'part of' some humerus</t>
+  </si>
+  <si>
+    <t>medial trochlea of astragalus; has_related_synonym: trochlea tali; tuberculum mediale tali</t>
+  </si>
+  <si>
+    <t>lateral trochlea of astragalus; has_related_synonym: tuberculum laterale tali</t>
+  </si>
+  <si>
+    <t>ridge of lateral trochlea of astragalus, ridge of lateral trochlea of talus</t>
+  </si>
+  <si>
+    <t>ridge of medial trochlea of astragalus, ridge of medial trochlea of talus</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>medial condyle of talus</t>
+  </si>
+  <si>
+    <t>lateral condyle of talus</t>
+  </si>
+  <si>
+    <t>medial condyle of talus; medial condyle of astragalus</t>
+  </si>
+  <si>
+    <t>lateral condyle of talus; lateral condyle of astragalus</t>
+  </si>
+  <si>
+    <t>The medial portion of the articular surface of the talus with the tibia.</t>
+  </si>
+  <si>
+    <t>mesoderm-derived structure'; 'part of' some talus</t>
+  </si>
+  <si>
+    <t>condyle' and ('part of' some talus)</t>
+  </si>
+  <si>
+    <t>condyle of talus; condyle of astragalus</t>
+  </si>
+  <si>
+    <t>A condyle on the proximal end of a talus.</t>
+  </si>
+  <si>
+    <t>The proximal end of the talus that includes the medial side of the trochlear groove that engages with the tibia.</t>
+  </si>
+  <si>
+    <t>The proximal end of a talus on the lateral size of the trochlear groove that engages with the tibia.</t>
+  </si>
+  <si>
+    <t>condyle of talus</t>
+  </si>
+  <si>
+    <t>ridge' and ('part of' some 'lateral trochlea of talus')</t>
+  </si>
+  <si>
+    <t>ridge' and ('part of' some 'medial trochlea of talus')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,11 +395,6 @@
       <color rgb="FF272727"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="12"/>
@@ -404,17 +423,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,17 +749,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="3"/>
     <col min="3" max="3" width="27.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="66" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="3" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -772,73 +792,85 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -846,36 +878,42 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
         <v>7</v>
@@ -883,150 +921,142 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="5"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
-      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1035,47 +1065,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CB5986-51FC-DE43-B05D-244B8FCFA800}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>99</v>
+        <v>78</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D2" t="str">
         <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
-        <v>line along proximal-distal of lateral side' some talus</v>
+        <v>line along proximal-distal of lateral side' and ('part of' some talus)</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>100</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1084,118 +1209,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E450E693-3DF7-A64A-99EB-94A43B6B5A08}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="85.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>88</v>
+      <c r="B1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
+      <c r="F2" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
+      <c r="F3" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1204,68 +1360,89 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="G6" s="10" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF542E6A-51E8-5C45-88E7-573D69468D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD62013-6EB2-D344-A18A-543EEDD6018E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD62013-6EB2-D344-A18A-543EEDD6018E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD417FBB-2221-4D4D-BEEE-C973F4D07B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
@@ -752,14 +752,14 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="3"/>
     <col min="3" max="3" width="27.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="66" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="3" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD417FBB-2221-4D4D-BEEE-C973F4D07B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F6654F-24A8-BE48-8FD0-4476EE00E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14720" yWindow="960" windowWidth="14400" windowHeight="16640" activeTab="2" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -364,6 +364,27 @@
   </si>
   <si>
     <t>ridge' and ('part of' some 'medial trochlea of talus')</t>
+  </si>
+  <si>
+    <t>Wolverton 2007</t>
+  </si>
+  <si>
+    <t>AST3</t>
+  </si>
+  <si>
+    <t>AST4</t>
+  </si>
+  <si>
+    <t>length of talus groove</t>
+  </si>
+  <si>
+    <t>astragalus head</t>
+  </si>
+  <si>
+    <t>sulcus for flexor hallucis longus tendon</t>
+  </si>
+  <si>
+    <t>length of talus along the midline</t>
   </si>
 </sst>
 </file>
@@ -749,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,7 +785,7 @@
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -789,8 +810,11 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -813,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -833,7 +857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -853,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -876,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -896,7 +920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -919,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -938,8 +962,11 @@
       <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -962,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -985,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1005,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1025,9 +1052,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
@@ -1209,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E450E693-3DF7-A64A-99EB-94A43B6B5A08}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,17 +1275,29 @@
         <v>99</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1444,6 +1489,11 @@
       </c>
       <c r="G10" s="8"/>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F6654F-24A8-BE48-8FD0-4476EE00E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3050DDE-0D55-BA46-9F95-3151D6D307B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="960" windowWidth="14400" windowHeight="16640" activeTab="2" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -117,27 +117,18 @@
     <t>Dl</t>
   </si>
   <si>
-    <t>astragalus lateral width AP</t>
-  </si>
-  <si>
     <t>talus lateral depth</t>
   </si>
   <si>
     <t>Dm</t>
   </si>
   <si>
-    <t>astragalus medial width AP</t>
-  </si>
-  <si>
     <t>talus medial depth</t>
   </si>
   <si>
     <t>Bd</t>
   </si>
   <si>
-    <t>astragalus distal width ML</t>
-  </si>
-  <si>
     <t>talus distal breadth</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
     <t>BFd</t>
   </si>
   <si>
-    <t>astragalus distal articular width ML</t>
-  </si>
-  <si>
     <t>talus distal articular breadth</t>
   </si>
   <si>
@@ -165,9 +153,6 @@
     <t>talus trochlea breadth</t>
   </si>
   <si>
-    <t>astragalus distal articular width AP</t>
-  </si>
-  <si>
     <t>talus distal articular depth</t>
   </si>
   <si>
@@ -375,9 +360,6 @@
     <t>AST4</t>
   </si>
   <si>
-    <t>length of talus groove</t>
-  </si>
-  <si>
     <t>astragalus head</t>
   </si>
   <si>
@@ -385,6 +367,24 @@
   </si>
   <si>
     <t>length of talus along the midline</t>
+  </si>
+  <si>
+    <t>astragalus lateral width AP (non-plantigrade); talus width PD (plantigrade)</t>
+  </si>
+  <si>
+    <t>astragalus medial width AP (non-plantigrade); talus medial width PD (plantigrade)</t>
+  </si>
+  <si>
+    <t>astragalus distal width ML (non-plantigrade); talus anterior breadth (plantigrade); talus anterior width ML (plantigrade)</t>
+  </si>
+  <si>
+    <t>astragalus distal articular width ML (non-plantigrade); talus anterior width ML (plantigrade)</t>
+  </si>
+  <si>
+    <t>astragalus distal articular width AP (non-plantigrade); talus anterior width PD (plantigrade); talus anterior depth (plantigrade)</t>
+  </si>
+  <si>
+    <t>length of astragalus along the midline</t>
   </si>
 </sst>
 </file>
@@ -772,15 +772,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="3"/>
     <col min="3" max="3" width="27.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="4" max="4" width="66" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="3" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -811,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -819,19 +819,19 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -842,10 +842,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
@@ -862,10 +862,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -882,7 +882,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -905,13 +905,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -925,19 +925,19 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3">
         <v>7</v>
@@ -948,22 +948,22 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -971,19 +971,19 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
@@ -994,19 +994,19 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -1017,13 +1017,13 @@
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
@@ -1037,13 +1037,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -1054,13 +1054,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
@@ -1114,27 +1117,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D2" t="str">
         <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
@@ -1146,10 +1149,10 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1157,62 +1160,62 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1220,13 +1223,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1244,46 +1247,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E450E693-3DF7-A64A-99EB-94A43B6B5A08}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1310,76 +1313,76 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="M1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="N1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -1388,15 +1391,15 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1405,93 +1408,93 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3050DDE-0D55-BA46-9F95-3151D6D307B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1A7D22-0E26-454E-8C11-15AC7B382906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -72,9 +72,6 @@
     <t>astragalus breadth of the trochlea (at the apex of each condyle), astragalus M3</t>
   </si>
   <si>
-    <t>articular facet of distal astragalus</t>
-  </si>
-  <si>
     <t>astragalus M5, astragalus distal articular breadth, Astragalus Bfd, Breadth astragalus of facies articularis distalis, Breadth of astragalus distal articular surgace</t>
   </si>
   <si>
@@ -159,39 +156,15 @@
     <t>Astragalus length, Astragalus height; Talus height</t>
   </si>
   <si>
-    <t>medial trochlea of talus</t>
-  </si>
-  <si>
-    <t>lateral trochlea of talus</t>
-  </si>
-  <si>
-    <t>The lateral trochlea of a talus.</t>
-  </si>
-  <si>
-    <t>articular facet of astragalus head</t>
-  </si>
-  <si>
-    <t>Facet on the head of astragalus that articulates with the navicular.</t>
-  </si>
-  <si>
-    <t>articular surface', 'part of' some 'astraglus head'</t>
-  </si>
-  <si>
     <t>trochlear groove of talus</t>
   </si>
   <si>
     <t>ridge of lateral trochlea of talus</t>
   </si>
   <si>
-    <t>The ridge of the lateral condyle of a talus.</t>
-  </si>
-  <si>
     <t>ridge of medial trochlea of talus</t>
   </si>
   <si>
-    <t>The ridge of the medial condyle of a talus.</t>
-  </si>
-  <si>
     <t>part of' some 'medial trochlea of talus'</t>
   </si>
   <si>
@@ -285,18 +258,6 @@
     <t>astragalus greatest length; talus height; astragalus height</t>
   </si>
   <si>
-    <t>Furrow between the lateral and medial condyle of a talus.</t>
-  </si>
-  <si>
-    <t>mesoderm-derived structure'; 'organ part'; 'part of' some humerus</t>
-  </si>
-  <si>
-    <t>medial trochlea of astragalus; has_related_synonym: trochlea tali; tuberculum mediale tali</t>
-  </si>
-  <si>
-    <t>lateral trochlea of astragalus; has_related_synonym: tuberculum laterale tali</t>
-  </si>
-  <si>
     <t>ridge of lateral trochlea of astragalus, ridge of lateral trochlea of talus</t>
   </si>
   <si>
@@ -309,39 +270,18 @@
     <t>Point B</t>
   </si>
   <si>
-    <t>medial condyle of talus</t>
-  </si>
-  <si>
-    <t>lateral condyle of talus</t>
-  </si>
-  <si>
     <t>medial condyle of talus; medial condyle of astragalus</t>
   </si>
   <si>
     <t>lateral condyle of talus; lateral condyle of astragalus</t>
   </si>
   <si>
-    <t>The medial portion of the articular surface of the talus with the tibia.</t>
-  </si>
-  <si>
-    <t>mesoderm-derived structure'; 'part of' some talus</t>
-  </si>
-  <si>
     <t>condyle' and ('part of' some talus)</t>
   </si>
   <si>
     <t>condyle of talus; condyle of astragalus</t>
   </si>
   <si>
-    <t>A condyle on the proximal end of a talus.</t>
-  </si>
-  <si>
-    <t>The proximal end of the talus that includes the medial side of the trochlear groove that engages with the tibia.</t>
-  </si>
-  <si>
-    <t>The proximal end of a talus on the lateral size of the trochlear groove that engages with the tibia.</t>
-  </si>
-  <si>
     <t>condyle of talus</t>
   </si>
   <si>
@@ -385,6 +325,45 @@
   </si>
   <si>
     <t>length of astragalus along the midline</t>
+  </si>
+  <si>
+    <t>trochlea tali</t>
+  </si>
+  <si>
+    <t>trochlea of talus</t>
+  </si>
+  <si>
+    <t>The articular surface of a talus that interacts with a tibia. It has a deep depression that forms the trochlear groove and is bounded by the medial and lateral condyles.</t>
+  </si>
+  <si>
+    <t>mesoderm-derived structure; part of some talus</t>
+  </si>
+  <si>
+    <t>Furrow between the lateral and medial condyles of a trochlea of talus.</t>
+  </si>
+  <si>
+    <t>The medial condyle of talus is an articular prominence of bone on medial side of the trochlea of a talus, which engages with the tibia.</t>
+  </si>
+  <si>
+    <t>The lateral condyle of talus is an articular prominence of bone on the lateral side of the trochlea of a talus, which engages with the tibia.</t>
+  </si>
+  <si>
+    <t>An articular prominence of a talus that engages with the tibia.</t>
+  </si>
+  <si>
+    <t>The crest of the lateral condyle of a talus.</t>
+  </si>
+  <si>
+    <t>The crest of the medial condyle of a talus.</t>
+  </si>
+  <si>
+    <t>mesoderm-derived structure'; 'organ part'; 'part of' some talus</t>
+  </si>
+  <si>
+    <t>sulcus and part of some talus</t>
+  </si>
+  <si>
+    <t>A depression that runs between the two facets of a talus that interact with a calcaneum.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,6 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,27 +791,27 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -839,62 +819,62 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -902,42 +882,42 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3">
         <v>7</v>
@@ -945,45 +925,45 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
@@ -991,22 +971,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -1014,19 +994,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="3">
         <v>4</v>
@@ -1034,19 +1014,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="3">
         <v>6</v>
@@ -1054,16 +1034,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
@@ -1103,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CB5986-51FC-DE43-B05D-244B8FCFA800}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,27 +1097,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D2" t="str">
         <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
@@ -1146,90 +1126,90 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1248,45 +1228,45 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1299,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,191 +1293,170 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="M1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="N1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="G4" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>85</v>
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="8"/>
+      <c r="A10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1A7D22-0E26-454E-8C11-15AC7B382906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C140C6-A6EF-CE45-A74A-FA79E2276EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14400" yWindow="520" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>A depression that runs between the two facets of a talus that interact with a calcaneum.</t>
+  </si>
+  <si>
+    <t>sulcus tali</t>
   </si>
 </sst>
 </file>
@@ -1083,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CB5986-51FC-DE43-B05D-244B8FCFA800}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1435,6 +1438,9 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>111</v>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C140C6-A6EF-CE45-A74A-FA79E2276EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D7A63A-F65D-BA42-959B-2218BF8C6D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="520" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>sulcus tali</t>
+  </si>
+  <si>
+    <t>talus head</t>
+  </si>
+  <si>
+    <t>made synnonym request on phenotype-ext</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>on fovt-talus; made pull request</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1099,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,186 +1292,224 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="E3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="2"/>
+      <c r="H4" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D7A63A-F65D-BA42-959B-2218BF8C6D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093F566-11B9-AD46-A13E-DA0F33F669BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093F566-11B9-AD46-A13E-DA0F33F669BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6664F-5EE7-FA4D-81BF-FEDD8F0EFA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>on fovt-talus; made pull request</t>
+  </si>
+  <si>
+    <t>taxon restrictions</t>
+  </si>
+  <si>
+    <t>only in horses</t>
+  </si>
+  <si>
+    <t>only in artiodactyls</t>
   </si>
 </sst>
 </file>
@@ -765,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,7 +789,7 @@
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -808,8 +817,11 @@
       <c r="I1" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -832,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -851,8 +863,11 @@
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -871,8 +886,11 @@
       <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -894,8 +912,11 @@
       <c r="G5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -914,8 +935,11 @@
       <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -937,8 +961,11 @@
       <c r="G7" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -960,8 +987,11 @@
       <c r="I8" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -983,8 +1013,11 @@
       <c r="G9" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1006,8 +1039,11 @@
       <c r="G10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1027,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +1083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>92</v>
       </c>
@@ -1294,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6664F-5EE7-FA4D-81BF-FEDD8F0EFA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3477AE7A-74F9-1442-A9FF-916BA3FEEC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -776,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3477AE7A-74F9-1442-A9FF-916BA3FEEC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2794968-9967-1546-B360-8F99249D73FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B4:B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2794968-9967-1546-B360-8F99249D73FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2462D96F-FF5C-524F-8B87-84288C72159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,6 +1084,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>92</v>
       </c>
@@ -1279,7 +1285,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2462D96F-FF5C-524F-8B87-84288C72159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD4497F-81DC-D04A-B921-8AB8437441DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1133,6 +1133,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD4497F-81DC-D04A-B921-8AB8437441DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438ACFE6-3F2C-B342-A6FA-C60CA64F4999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/talusTerms.xlsx
+++ b/terms/talusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438ACFE6-3F2C-B342-A6FA-C60CA64F4999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA69DF87-75F0-AB41-A76B-078844D7D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="3" xr2:uid="{3DC62EC4-04E1-C349-BCFB-87B80DF07016}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -372,15 +372,9 @@
     <t>talus head</t>
   </si>
   <si>
-    <t>made synnonym request on phenotype-ext</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>on fovt-talus; made pull request</t>
-  </si>
-  <si>
     <t>taxon restrictions</t>
   </si>
   <si>
@@ -388,6 +382,12 @@
   </si>
   <si>
     <t>only in artiodactyls</t>
+  </si>
+  <si>
+    <t>pull request approved</t>
+  </si>
+  <si>
+    <t>made synonym request on phenotype-ext</t>
   </si>
 </sst>
 </file>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F15F8B-A654-0943-879B-F3C7F25CA2AF}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
         <v>87</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -887,7 +887,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -936,7 +936,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -988,7 +988,7 @@
         <v>89</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF49D43-3901-734B-AE20-B8D37F366899}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1348,7 +1348,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>99</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>42</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>76</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>77</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>83</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>80</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>81</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>113</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>91</v>
